--- a/Code/Results/Cases/Case_2_213/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_2_213/res_bus/vm_pu.xlsx
@@ -418,40 +418,40 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C2">
-        <v>1.013048770237565</v>
+        <v>1.032440098722358</v>
       </c>
       <c r="D2">
-        <v>1.032598066147018</v>
+        <v>1.041423314811248</v>
       </c>
       <c r="E2">
-        <v>0.9527101846680761</v>
+        <v>0.992614727750844</v>
       </c>
       <c r="F2">
-        <v>1.037223862888154</v>
+        <v>1.050363779391306</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.053208007929463</v>
+        <v>1.040737021158761</v>
       </c>
       <c r="J2">
-        <v>1.034846078394485</v>
+        <v>1.037570308140926</v>
       </c>
       <c r="K2">
-        <v>1.043621196783347</v>
+        <v>1.044202871759524</v>
       </c>
       <c r="L2">
-        <v>0.9648701708403392</v>
+        <v>0.9955398523335997</v>
       </c>
       <c r="M2">
-        <v>1.048187869790628</v>
+        <v>1.053118263255288</v>
       </c>
       <c r="N2">
-        <v>1.0155698522067</v>
+        <v>1.016526723653798</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,40 +459,40 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C3">
-        <v>1.016500634843028</v>
+        <v>1.033166757806067</v>
       </c>
       <c r="D3">
-        <v>1.035166725562134</v>
+        <v>1.041985927008585</v>
       </c>
       <c r="E3">
-        <v>0.9571825583057848</v>
+        <v>0.9936372048519299</v>
       </c>
       <c r="F3">
-        <v>1.040310585400822</v>
+        <v>1.051062159088028</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.054262374632528</v>
+        <v>1.040904785049461</v>
       </c>
       <c r="J3">
-        <v>1.036551364398722</v>
+        <v>1.03794039522276</v>
       </c>
       <c r="K3">
-        <v>1.045368577297054</v>
+        <v>1.04457676004986</v>
       </c>
       <c r="L3">
-        <v>0.9683942856474066</v>
+        <v>0.9963617723202687</v>
       </c>
       <c r="M3">
-        <v>1.050452411409931</v>
+        <v>1.053629368519858</v>
       </c>
       <c r="N3">
-        <v>1.016132592699574</v>
+        <v>1.016648822824291</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -500,40 +500,40 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C4">
-        <v>1.018694676995207</v>
+        <v>1.03363747613114</v>
       </c>
       <c r="D4">
-        <v>1.036801691441843</v>
+        <v>1.042350397637276</v>
       </c>
       <c r="E4">
-        <v>0.9600238894088612</v>
+        <v>0.9942998659930998</v>
       </c>
       <c r="F4">
-        <v>1.042276812035762</v>
+        <v>1.051514831784722</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.05492285458639</v>
+        <v>1.041012269272987</v>
       </c>
       <c r="J4">
-        <v>1.037631965802746</v>
+        <v>1.03817967986911</v>
       </c>
       <c r="K4">
-        <v>1.046475350243689</v>
+        <v>1.044818408201965</v>
       </c>
       <c r="L4">
-        <v>0.9706300002952756</v>
+        <v>0.9968940712668347</v>
       </c>
       <c r="M4">
-        <v>1.051890424995489</v>
+        <v>1.05396018401667</v>
       </c>
       <c r="N4">
-        <v>1.016489212524032</v>
+        <v>1.01672776305186</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -541,40 +541,40 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C5">
-        <v>1.019607839555791</v>
+        <v>1.033835488912423</v>
       </c>
       <c r="D5">
-        <v>1.037482684041602</v>
+        <v>1.042503720346199</v>
       </c>
       <c r="E5">
-        <v>0.9612062874769891</v>
+        <v>0.994578699834602</v>
       </c>
       <c r="F5">
-        <v>1.043096154806201</v>
+        <v>1.051705318527317</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.055195389265598</v>
+        <v>1.041057198505249</v>
       </c>
       <c r="J5">
-        <v>1.038080899434583</v>
+        <v>1.038280229167391</v>
       </c>
       <c r="K5">
-        <v>1.046935029942011</v>
+        <v>1.044919928003589</v>
       </c>
       <c r="L5">
-        <v>0.9715596031702912</v>
+        <v>0.9971179600053012</v>
       </c>
       <c r="M5">
-        <v>1.052488572774835</v>
+        <v>1.05409928009314</v>
       </c>
       <c r="N5">
-        <v>1.016637374574986</v>
+        <v>1.016760933245</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -582,40 +582,40 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C6">
-        <v>1.019760630539237</v>
+        <v>1.033868743272297</v>
       </c>
       <c r="D6">
-        <v>1.037596657689085</v>
+        <v>1.042529469666164</v>
       </c>
       <c r="E6">
-        <v>0.9614041218017085</v>
+        <v>0.994625531979634</v>
       </c>
       <c r="F6">
-        <v>1.043233305618281</v>
+        <v>1.051737312763945</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.055240850402321</v>
+        <v>1.041064727215768</v>
       </c>
       <c r="J6">
-        <v>1.038155966828468</v>
+        <v>1.038297109102705</v>
       </c>
       <c r="K6">
-        <v>1.047011886577253</v>
+        <v>1.044936969532303</v>
       </c>
       <c r="L6">
-        <v>0.9717150950965046</v>
+        <v>0.9971555583673455</v>
       </c>
       <c r="M6">
-        <v>1.052588633540189</v>
+        <v>1.054122636129875</v>
       </c>
       <c r="N6">
-        <v>1.016662149427876</v>
+        <v>1.016766501698587</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -623,40 +623,40 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C7">
-        <v>1.018706914587198</v>
+        <v>1.033640121507621</v>
       </c>
       <c r="D7">
-        <v>1.036810815645463</v>
+        <v>1.042352445955316</v>
       </c>
       <c r="E7">
-        <v>0.9600397355691357</v>
+        <v>0.994303590798249</v>
       </c>
       <c r="F7">
-        <v>1.042287788416787</v>
+        <v>1.051517376361098</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.054926516265954</v>
+        <v>1.041012870631104</v>
       </c>
       <c r="J7">
-        <v>1.037637985352743</v>
+        <v>1.038181023596048</v>
       </c>
       <c r="K7">
-        <v>1.046481514392219</v>
+        <v>1.044819764987769</v>
       </c>
       <c r="L7">
-        <v>0.9706424616290568</v>
+        <v>0.9968970624462089</v>
       </c>
       <c r="M7">
-        <v>1.051898442411441</v>
+        <v>1.053962042544043</v>
       </c>
       <c r="N7">
-        <v>1.016491199143395</v>
+        <v>1.016728206338139</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -664,40 +664,40 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C8">
-        <v>1.014223688514913</v>
+        <v>1.032685567416685</v>
       </c>
       <c r="D8">
-        <v>1.033471864407597</v>
+        <v>1.041613363474641</v>
       </c>
       <c r="E8">
-        <v>0.9542328392922297</v>
+        <v>0.9929600610674297</v>
       </c>
       <c r="F8">
-        <v>1.038273585385489</v>
+        <v>1.05059963840554</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.053568891909343</v>
+        <v>1.040793938796764</v>
       </c>
       <c r="J8">
-        <v>1.035427186152863</v>
+        <v>1.03769541860671</v>
       </c>
       <c r="K8">
-        <v>1.044216750676281</v>
+        <v>1.044329286705528</v>
       </c>
       <c r="L8">
-        <v>0.966070643453771</v>
+        <v>0.9958175282591056</v>
       </c>
       <c r="M8">
-        <v>1.048958921155968</v>
+        <v>1.053290972674081</v>
       </c>
       <c r="N8">
-        <v>1.015761611055769</v>
+        <v>1.016568001053927</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -705,40 +705,40 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C9">
-        <v>1.006008865962223</v>
+        <v>1.031007602398689</v>
       </c>
       <c r="D9">
-        <v>1.027373524147992</v>
+        <v>1.040314332635844</v>
       </c>
       <c r="E9">
-        <v>0.9435740419925933</v>
+        <v>0.9906006454969559</v>
       </c>
       <c r="F9">
-        <v>1.030953334749052</v>
+        <v>1.048988496135564</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.051006132421437</v>
+        <v>1.040399996908484</v>
       </c>
       <c r="J9">
-        <v>1.031351205565251</v>
+        <v>1.036838351508552</v>
       </c>
       <c r="K9">
-        <v>1.040037565290587</v>
+        <v>1.043462900439626</v>
       </c>
       <c r="L9">
-        <v>0.9576541208834081</v>
+        <v>0.9939188001724441</v>
       </c>
       <c r="M9">
-        <v>1.043563412589821</v>
+        <v>1.052109277886509</v>
       </c>
       <c r="N9">
-        <v>1.014416711544812</v>
+        <v>1.016285212676942</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -746,40 +746,40 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C10">
-        <v>1.000303176433186</v>
+        <v>1.029891822822464</v>
       </c>
       <c r="D10">
-        <v>1.023153529830257</v>
+        <v>1.039450667774269</v>
       </c>
       <c r="E10">
-        <v>0.9361465105547283</v>
+        <v>0.989033133672735</v>
       </c>
       <c r="F10">
-        <v>1.02589472893939</v>
+        <v>1.047918588648315</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.049177511119251</v>
+        <v>1.040131940285502</v>
       </c>
       <c r="J10">
-        <v>1.028504770836108</v>
+        <v>1.036266132504752</v>
       </c>
       <c r="K10">
-        <v>1.037116956117823</v>
+        <v>1.042883982654257</v>
       </c>
       <c r="L10">
-        <v>0.9517730114689358</v>
+        <v>0.9926553831429383</v>
       </c>
       <c r="M10">
-        <v>1.03981167310545</v>
+        <v>1.051322137088822</v>
       </c>
       <c r="N10">
-        <v>1.013477698778943</v>
+        <v>1.01609638729451</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -787,40 +787,40 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C11">
-        <v>0.9977740608980762</v>
+        <v>1.029409382538104</v>
       </c>
       <c r="D11">
-        <v>1.021287214762844</v>
+        <v>1.039077275297373</v>
       </c>
       <c r="E11">
-        <v>0.9328454960016257</v>
+        <v>0.988355674866747</v>
       </c>
       <c r="F11">
-        <v>1.023659012119044</v>
+        <v>1.047456328417402</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.04835589886122</v>
+        <v>1.040014592807539</v>
       </c>
       <c r="J11">
-        <v>1.027239735630433</v>
+        <v>1.036018172734634</v>
       </c>
       <c r="K11">
-        <v>1.035818549215216</v>
+        <v>1.042633008244475</v>
       </c>
       <c r="L11">
-        <v>0.9491556125416573</v>
+        <v>0.9921088820399291</v>
       </c>
       <c r="M11">
-        <v>1.038148133378466</v>
+        <v>1.05098147464545</v>
       </c>
       <c r="N11">
-        <v>1.013060429047288</v>
+        <v>1.01601455844554</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -828,40 +828,40 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C12">
-        <v>0.9968254697481589</v>
+        <v>1.029230289902469</v>
       </c>
       <c r="D12">
-        <v>1.020587904029147</v>
+        <v>1.038938669913827</v>
       </c>
       <c r="E12">
-        <v>0.9316058186411971</v>
+        <v>0.9881042295826724</v>
       </c>
       <c r="F12">
-        <v>1.0228214939406</v>
+        <v>1.047284779454552</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.048046118704561</v>
+        <v>1.03997081377132</v>
       </c>
       <c r="J12">
-        <v>1.026764791710488</v>
+        <v>1.035926042977867</v>
       </c>
       <c r="K12">
-        <v>1.035331023140331</v>
+        <v>1.042539741689341</v>
       </c>
       <c r="L12">
-        <v>0.9481721277252507</v>
+        <v>0.9919059725120875</v>
       </c>
       <c r="M12">
-        <v>1.037524152705942</v>
+        <v>1.050854965536438</v>
       </c>
       <c r="N12">
-        <v>1.012903778430725</v>
+        <v>1.015984154083766</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -869,40 +869,40 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C13">
-        <v>0.9970293667329324</v>
+        <v>1.029268700998269</v>
       </c>
       <c r="D13">
-        <v>1.020738187171079</v>
+        <v>1.038968397169366</v>
       </c>
       <c r="E13">
-        <v>0.931872359336823</v>
+        <v>0.9881581567098651</v>
       </c>
       <c r="F13">
-        <v>1.023001468947533</v>
+        <v>1.047321570235174</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.048112777588341</v>
+        <v>1.039980213149594</v>
       </c>
       <c r="J13">
-        <v>1.026866900292231</v>
+        <v>1.035945806298872</v>
       </c>
       <c r="K13">
-        <v>1.035435839039817</v>
+        <v>1.042559749626301</v>
       </c>
       <c r="L13">
-        <v>0.9483836088965215</v>
+        <v>0.9919494934313052</v>
       </c>
       <c r="M13">
-        <v>1.037658276705221</v>
+        <v>1.05088210086909</v>
       </c>
       <c r="N13">
-        <v>1.012937456463562</v>
+        <v>1.015990676344304</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -910,40 +910,40 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C14">
-        <v>0.9976958392541238</v>
+        <v>1.02939457648693</v>
       </c>
       <c r="D14">
-        <v>1.021229534791204</v>
+        <v>1.039065816301469</v>
       </c>
       <c r="E14">
-        <v>0.9327433047194318</v>
+        <v>0.9883348863814464</v>
       </c>
       <c r="F14">
-        <v>1.023589928488529</v>
+        <v>1.047442144949912</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.048330386817773</v>
+        <v>1.040010977908881</v>
       </c>
       <c r="J14">
-        <v>1.027200580717981</v>
+        <v>1.036010557792065</v>
       </c>
       <c r="K14">
-        <v>1.035778358048973</v>
+        <v>1.042625299680546</v>
       </c>
       <c r="L14">
-        <v>0.9490745509764519</v>
+        <v>0.9920921077337197</v>
       </c>
       <c r="M14">
-        <v>1.03809667995913</v>
+        <v>1.050971016779363</v>
       </c>
       <c r="N14">
-        <v>1.013047514409795</v>
+        <v>1.0160120454023</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -951,40 +951,40 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C15">
-        <v>0.9981052489938793</v>
+        <v>1.02947214679196</v>
       </c>
       <c r="D15">
-        <v>1.02153145825744</v>
+        <v>1.039125851326187</v>
       </c>
       <c r="E15">
-        <v>0.9332781050737295</v>
+        <v>0.9884438009545853</v>
       </c>
       <c r="F15">
-        <v>1.023951552341754</v>
+        <v>1.047516455628309</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.048463850274096</v>
+        <v>1.04002990781634</v>
       </c>
       <c r="J15">
-        <v>1.027405497388976</v>
+        <v>1.036050449858863</v>
       </c>
       <c r="K15">
-        <v>1.035988695821432</v>
+        <v>1.042665681514018</v>
       </c>
       <c r="L15">
-        <v>0.9494987508782939</v>
+        <v>0.9921799884222134</v>
       </c>
       <c r="M15">
-        <v>1.038365984245059</v>
+        <v>1.051025804583546</v>
       </c>
       <c r="N15">
-        <v>1.01311510334407</v>
+        <v>1.016025210341356</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -992,40 +992,40 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C16">
-        <v>1.00046976120851</v>
+        <v>1.029923855711147</v>
       </c>
       <c r="D16">
-        <v>1.023276550643364</v>
+        <v>1.039475461000801</v>
       </c>
       <c r="E16">
-        <v>0.9363637346017259</v>
+        <v>0.9890781214508737</v>
       </c>
       <c r="F16">
-        <v>1.0260421290852</v>
+        <v>1.047949288956979</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.049231400836826</v>
+        <v>1.04013970142119</v>
       </c>
       <c r="J16">
-        <v>1.028588027860721</v>
+        <v>1.036282584993085</v>
       </c>
       <c r="K16">
-        <v>1.037202401658848</v>
+        <v>1.042900632820824</v>
       </c>
       <c r="L16">
-        <v>0.9519451749175716</v>
+        <v>0.9926916645766087</v>
       </c>
       <c r="M16">
-        <v>1.039921237406847</v>
+        <v>1.051344749571573</v>
       </c>
       <c r="N16">
-        <v>1.013505162153838</v>
+        <v>1.016101816650314</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1033,40 +1033,40 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C17">
-        <v>1.001937033538561</v>
+        <v>1.030207389544894</v>
       </c>
       <c r="D17">
-        <v>1.024360603591308</v>
+        <v>1.03969491867548</v>
       </c>
       <c r="E17">
-        <v>0.938276015685567</v>
+        <v>0.989476357848556</v>
       </c>
       <c r="F17">
-        <v>1.027341178629632</v>
+        <v>1.048221067720051</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.049704803045895</v>
+        <v>1.040208230761786</v>
       </c>
       <c r="J17">
-        <v>1.029320977377528</v>
+        <v>1.036428148617472</v>
       </c>
       <c r="K17">
-        <v>1.037954572316477</v>
+        <v>1.043047932502028</v>
       </c>
       <c r="L17">
-        <v>0.9534603602068051</v>
+        <v>0.9930127773699352</v>
       </c>
       <c r="M17">
-        <v>1.040886219308661</v>
+        <v>1.051544863413643</v>
       </c>
       <c r="N17">
-        <v>1.013746940979173</v>
+        <v>1.016149852364809</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1074,40 +1074,40 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C18">
-        <v>1.002787249162938</v>
+        <v>1.030372837400046</v>
       </c>
       <c r="D18">
-        <v>1.024989162575676</v>
+        <v>1.039822980458778</v>
       </c>
       <c r="E18">
-        <v>0.9393832867215687</v>
+        <v>0.9897087662937556</v>
       </c>
       <c r="F18">
-        <v>1.02809453945672</v>
+        <v>1.048379689623432</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.04997806292403</v>
+        <v>1.040248079474224</v>
       </c>
       <c r="J18">
-        <v>1.029745369558032</v>
+        <v>1.036513035459894</v>
       </c>
       <c r="K18">
-        <v>1.038390054761779</v>
+        <v>1.043133820948522</v>
       </c>
       <c r="L18">
-        <v>0.954337351586573</v>
+        <v>0.9932001317071769</v>
       </c>
       <c r="M18">
-        <v>1.041445327372504</v>
+        <v>1.05166160316638</v>
       </c>
       <c r="N18">
-        <v>1.013886940735052</v>
+        <v>1.016177864364793</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1115,40 +1115,40 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C19">
-        <v>1.003076208582615</v>
+        <v>1.030429262207182</v>
       </c>
       <c r="D19">
-        <v>1.025202855087552</v>
+        <v>1.039866655625438</v>
       </c>
       <c r="E19">
-        <v>0.9397594814684969</v>
+        <v>0.9897880325774034</v>
       </c>
       <c r="F19">
-        <v>1.028350685595616</v>
+        <v>1.048433792136807</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.050070754579956</v>
+        <v>1.040261645914674</v>
       </c>
       <c r="J19">
-        <v>1.029889551285038</v>
+        <v>1.03654197659223</v>
       </c>
       <c r="K19">
-        <v>1.038537997386079</v>
+        <v>1.043163101731569</v>
       </c>
       <c r="L19">
-        <v>0.9546352493816594</v>
+        <v>0.9932640239640975</v>
       </c>
       <c r="M19">
-        <v>1.041635338893019</v>
+        <v>1.051701411187595</v>
       </c>
       <c r="N19">
-        <v>1.013934504668645</v>
+        <v>1.016187414629896</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1156,40 +1156,40 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C20">
-        <v>1.001780192994362</v>
+        <v>1.03017696206498</v>
       </c>
       <c r="D20">
-        <v>1.024244684444139</v>
+        <v>1.039671367153873</v>
       </c>
       <c r="E20">
-        <v>0.938071692466014</v>
+        <v>0.9894336180360679</v>
       </c>
       <c r="F20">
-        <v>1.027202255021829</v>
+        <v>1.048191898282873</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.049654308917921</v>
+        <v>1.040200890958146</v>
       </c>
       <c r="J20">
-        <v>1.029242663246249</v>
+        <v>1.03641253286573</v>
       </c>
       <c r="K20">
-        <v>1.037874208451507</v>
+        <v>1.043032131625732</v>
       </c>
       <c r="L20">
-        <v>0.9532985019057443</v>
+        <v>0.9929783193494215</v>
       </c>
       <c r="M20">
-        <v>1.040783075178914</v>
+        <v>1.051523391348061</v>
       </c>
       <c r="N20">
-        <v>1.013721106884123</v>
+        <v>1.016144699247911</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1197,40 +1197,40 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C21">
-        <v>0.9974998358118001</v>
+        <v>1.029357506318067</v>
       </c>
       <c r="D21">
-        <v>1.021085014729032</v>
+        <v>1.039037126316145</v>
       </c>
       <c r="E21">
-        <v>0.9324872132148895</v>
+        <v>0.9882828385668249</v>
       </c>
       <c r="F21">
-        <v>1.023416839289299</v>
+        <v>1.047406634402472</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.048266434201559</v>
+        <v>1.040001923718006</v>
       </c>
       <c r="J21">
-        <v>1.027102461055352</v>
+        <v>1.035991490810651</v>
       </c>
       <c r="K21">
-        <v>1.035677640773465</v>
+        <v>1.042605998012003</v>
       </c>
       <c r="L21">
-        <v>0.9488714019981064</v>
+        <v>0.9920501090198102</v>
       </c>
       <c r="M21">
-        <v>1.037967750347763</v>
+        <v>1.050944832469757</v>
       </c>
       <c r="N21">
-        <v>1.013015151313566</v>
+        <v>1.01600575300541</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1238,40 +1238,40 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C22">
-        <v>0.994755379354028</v>
+        <v>1.028842903015152</v>
       </c>
       <c r="D22">
-        <v>1.019063124111151</v>
+        <v>1.038638871068714</v>
       </c>
       <c r="E22">
-        <v>0.928897295365116</v>
+        <v>0.9875604150241495</v>
       </c>
       <c r="F22">
-        <v>1.020995731789717</v>
+        <v>1.046913806155583</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.047367163326444</v>
+        <v>1.039875720751158</v>
       </c>
       <c r="J22">
-        <v>1.025727502509806</v>
+        <v>1.035726612555423</v>
       </c>
       <c r="K22">
-        <v>1.034266165540985</v>
+        <v>1.042337820029939</v>
       </c>
       <c r="L22">
-        <v>0.9460223821572515</v>
+        <v>0.9914670000341481</v>
       </c>
       <c r="M22">
-        <v>1.036162426351672</v>
+        <v>1.050581232971485</v>
       </c>
       <c r="N22">
-        <v>1.01256166669665</v>
+        <v>1.015918337346331</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1279,40 +1279,40 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C23">
-        <v>0.9962154430137143</v>
+        <v>1.02911564440862</v>
       </c>
       <c r="D23">
-        <v>1.020138385259075</v>
+        <v>1.03884994400765</v>
       </c>
       <c r="E23">
-        <v>0.9308081199963315</v>
+        <v>0.9879432794643023</v>
       </c>
       <c r="F23">
-        <v>1.022283191828141</v>
+        <v>1.047174977813133</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.047846452064472</v>
+        <v>1.039942727703798</v>
       </c>
       <c r="J23">
-        <v>1.026459232915339</v>
+        <v>1.035867043522361</v>
       </c>
       <c r="K23">
-        <v>1.035017355566998</v>
+        <v>1.042480009543054</v>
       </c>
       <c r="L23">
-        <v>0.9475391330285319</v>
+        <v>0.991776070289318</v>
       </c>
       <c r="M23">
-        <v>1.037122872849462</v>
+        <v>1.050773967839764</v>
       </c>
       <c r="N23">
-        <v>1.012802998644354</v>
+        <v>1.015964683065939</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1320,40 +1320,40 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C24">
-        <v>1.001851079824479</v>
+        <v>1.030190710725538</v>
       </c>
       <c r="D24">
-        <v>1.024297074893095</v>
+        <v>1.039682008900483</v>
       </c>
       <c r="E24">
-        <v>0.9381640424011829</v>
+        <v>0.9894529299347244</v>
       </c>
       <c r="F24">
-        <v>1.027265042053105</v>
+        <v>1.048205078393618</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.049677133894208</v>
+        <v>1.040204207880547</v>
       </c>
       <c r="J24">
-        <v>1.029278059676007</v>
+        <v>1.036419589007435</v>
       </c>
       <c r="K24">
-        <v>1.037910531442102</v>
+        <v>1.043039271451284</v>
       </c>
       <c r="L24">
-        <v>0.9533716596442545</v>
+        <v>0.9929938892766442</v>
       </c>
       <c r="M24">
-        <v>1.040829693144073</v>
+        <v>1.051533093598785</v>
       </c>
       <c r="N24">
-        <v>1.013732783365638</v>
+        <v>1.016147027739521</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1361,40 +1361,40 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C25">
-        <v>1.008171646221674</v>
+        <v>1.031440900583187</v>
       </c>
       <c r="D25">
-        <v>1.028976541582355</v>
+        <v>1.040649756720545</v>
       </c>
       <c r="E25">
-        <v>0.9463835801718012</v>
+        <v>0.9912096547607049</v>
       </c>
       <c r="F25">
-        <v>1.03287628832408</v>
+        <v>1.049404286746614</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.051689416432895</v>
+        <v>1.040502801198036</v>
       </c>
       <c r="J25">
-        <v>1.03242709705537</v>
+        <v>1.037060077934446</v>
       </c>
       <c r="K25">
-        <v>1.041141090940652</v>
+        <v>1.0436871221942</v>
       </c>
       <c r="L25">
-        <v>0.9598754494005829</v>
+        <v>0.9944092447426414</v>
       </c>
       <c r="M25">
-        <v>1.044984812610616</v>
+        <v>1.052414666563164</v>
       </c>
       <c r="N25">
-        <v>1.014771680092965</v>
+        <v>1.016358375072634</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_2_213/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_2_213/res_bus/vm_pu.xlsx
@@ -418,40 +418,40 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C2">
-        <v>1.032440098722358</v>
+        <v>1.013048770237564</v>
       </c>
       <c r="D2">
-        <v>1.041423314811248</v>
+        <v>1.032598066147018</v>
       </c>
       <c r="E2">
-        <v>0.992614727750844</v>
+        <v>0.9527101846680758</v>
       </c>
       <c r="F2">
-        <v>1.050363779391306</v>
+        <v>1.037223862888153</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.040737021158761</v>
+        <v>1.053208007929462</v>
       </c>
       <c r="J2">
-        <v>1.037570308140926</v>
+        <v>1.034846078394484</v>
       </c>
       <c r="K2">
-        <v>1.044202871759524</v>
+        <v>1.043621196783346</v>
       </c>
       <c r="L2">
-        <v>0.9955398523335997</v>
+        <v>0.964870170840339</v>
       </c>
       <c r="M2">
-        <v>1.053118263255288</v>
+        <v>1.048187869790627</v>
       </c>
       <c r="N2">
-        <v>1.016526723653798</v>
+        <v>1.0155698522067</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,40 +459,40 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C3">
-        <v>1.033166757806067</v>
+        <v>1.016500634843027</v>
       </c>
       <c r="D3">
-        <v>1.041985927008585</v>
+        <v>1.035166725562134</v>
       </c>
       <c r="E3">
-        <v>0.9936372048519299</v>
+        <v>0.9571825583057846</v>
       </c>
       <c r="F3">
-        <v>1.051062159088028</v>
+        <v>1.040310585400822</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.040904785049461</v>
+        <v>1.054262374632528</v>
       </c>
       <c r="J3">
-        <v>1.03794039522276</v>
+        <v>1.036551364398722</v>
       </c>
       <c r="K3">
-        <v>1.04457676004986</v>
+        <v>1.045368577297053</v>
       </c>
       <c r="L3">
-        <v>0.9963617723202687</v>
+        <v>0.9683942856474063</v>
       </c>
       <c r="M3">
-        <v>1.053629368519858</v>
+        <v>1.05045241140993</v>
       </c>
       <c r="N3">
-        <v>1.016648822824291</v>
+        <v>1.016132592699574</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -500,40 +500,40 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.03363747613114</v>
+        <v>1.018694676995205</v>
       </c>
       <c r="D4">
-        <v>1.042350397637276</v>
+        <v>1.036801691441842</v>
       </c>
       <c r="E4">
-        <v>0.9942998659930998</v>
+        <v>0.9600238894088611</v>
       </c>
       <c r="F4">
-        <v>1.051514831784722</v>
+        <v>1.04227681203576</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.041012269272987</v>
+        <v>1.05492285458639</v>
       </c>
       <c r="J4">
-        <v>1.03817967986911</v>
+        <v>1.037631965802745</v>
       </c>
       <c r="K4">
-        <v>1.044818408201965</v>
+        <v>1.046475350243688</v>
       </c>
       <c r="L4">
-        <v>0.9968940712668347</v>
+        <v>0.9706300002952755</v>
       </c>
       <c r="M4">
-        <v>1.05396018401667</v>
+        <v>1.051890424995487</v>
       </c>
       <c r="N4">
-        <v>1.01672776305186</v>
+        <v>1.016489212524032</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -541,40 +541,40 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.033835488912423</v>
+        <v>1.019607839555791</v>
       </c>
       <c r="D5">
-        <v>1.042503720346199</v>
+        <v>1.037482684041602</v>
       </c>
       <c r="E5">
-        <v>0.994578699834602</v>
+        <v>0.9612062874769892</v>
       </c>
       <c r="F5">
-        <v>1.051705318527317</v>
+        <v>1.043096154806201</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.041057198505249</v>
+        <v>1.055195389265597</v>
       </c>
       <c r="J5">
-        <v>1.038280229167391</v>
+        <v>1.038080899434582</v>
       </c>
       <c r="K5">
-        <v>1.044919928003589</v>
+        <v>1.046935029942011</v>
       </c>
       <c r="L5">
-        <v>0.9971179600053012</v>
+        <v>0.9715596031702914</v>
       </c>
       <c r="M5">
-        <v>1.05409928009314</v>
+        <v>1.052488572774834</v>
       </c>
       <c r="N5">
-        <v>1.016760933245</v>
+        <v>1.016637374574986</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -582,40 +582,40 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.033868743272297</v>
+        <v>1.019760630539236</v>
       </c>
       <c r="D6">
-        <v>1.042529469666164</v>
+        <v>1.037596657689085</v>
       </c>
       <c r="E6">
-        <v>0.994625531979634</v>
+        <v>0.9614041218017083</v>
       </c>
       <c r="F6">
-        <v>1.051737312763945</v>
+        <v>1.04323330561828</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.041064727215768</v>
+        <v>1.055240850402321</v>
       </c>
       <c r="J6">
-        <v>1.038297109102705</v>
+        <v>1.038155966828467</v>
       </c>
       <c r="K6">
-        <v>1.044936969532303</v>
+        <v>1.047011886577252</v>
       </c>
       <c r="L6">
-        <v>0.9971555583673455</v>
+        <v>0.9717150950965043</v>
       </c>
       <c r="M6">
-        <v>1.054122636129875</v>
+        <v>1.052588633540188</v>
       </c>
       <c r="N6">
-        <v>1.016766501698587</v>
+        <v>1.016662149427876</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -623,40 +623,40 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.033640121507621</v>
+        <v>1.018706914587197</v>
       </c>
       <c r="D7">
-        <v>1.042352445955316</v>
+        <v>1.036810815645462</v>
       </c>
       <c r="E7">
-        <v>0.994303590798249</v>
+        <v>0.9600397355691357</v>
       </c>
       <c r="F7">
-        <v>1.051517376361098</v>
+        <v>1.042287788416786</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.041012870631104</v>
+        <v>1.054926516265953</v>
       </c>
       <c r="J7">
-        <v>1.038181023596048</v>
+        <v>1.037637985352743</v>
       </c>
       <c r="K7">
-        <v>1.044819764987769</v>
+        <v>1.046481514392219</v>
       </c>
       <c r="L7">
-        <v>0.9968970624462089</v>
+        <v>0.9706424616290568</v>
       </c>
       <c r="M7">
-        <v>1.053962042544043</v>
+        <v>1.05189844241144</v>
       </c>
       <c r="N7">
-        <v>1.016728206338139</v>
+        <v>1.016491199143395</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -664,40 +664,40 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C8">
-        <v>1.032685567416685</v>
+        <v>1.014223688514912</v>
       </c>
       <c r="D8">
-        <v>1.041613363474641</v>
+        <v>1.033471864407596</v>
       </c>
       <c r="E8">
-        <v>0.9929600610674297</v>
+        <v>0.9542328392922295</v>
       </c>
       <c r="F8">
-        <v>1.05059963840554</v>
+        <v>1.038273585385488</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.040793938796764</v>
+        <v>1.053568891909342</v>
       </c>
       <c r="J8">
-        <v>1.03769541860671</v>
+        <v>1.035427186152862</v>
       </c>
       <c r="K8">
-        <v>1.044329286705528</v>
+        <v>1.044216750676281</v>
       </c>
       <c r="L8">
-        <v>0.9958175282591056</v>
+        <v>0.9660706434537708</v>
       </c>
       <c r="M8">
-        <v>1.053290972674081</v>
+        <v>1.048958921155968</v>
       </c>
       <c r="N8">
-        <v>1.016568001053927</v>
+        <v>1.015761611055769</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -705,40 +705,40 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C9">
-        <v>1.031007602398689</v>
+        <v>1.006008865962223</v>
       </c>
       <c r="D9">
-        <v>1.040314332635844</v>
+        <v>1.027373524147992</v>
       </c>
       <c r="E9">
-        <v>0.9906006454969559</v>
+        <v>0.9435740419925935</v>
       </c>
       <c r="F9">
-        <v>1.048988496135564</v>
+        <v>1.030953334749052</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.040399996908484</v>
+        <v>1.051006132421437</v>
       </c>
       <c r="J9">
-        <v>1.036838351508552</v>
+        <v>1.031351205565251</v>
       </c>
       <c r="K9">
-        <v>1.043462900439626</v>
+        <v>1.040037565290587</v>
       </c>
       <c r="L9">
-        <v>0.9939188001724441</v>
+        <v>0.9576541208834084</v>
       </c>
       <c r="M9">
-        <v>1.052109277886509</v>
+        <v>1.043563412589821</v>
       </c>
       <c r="N9">
-        <v>1.016285212676942</v>
+        <v>1.014416711544812</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -746,40 +746,40 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C10">
-        <v>1.029891822822464</v>
+        <v>1.000303176433186</v>
       </c>
       <c r="D10">
-        <v>1.039450667774269</v>
+        <v>1.023153529830258</v>
       </c>
       <c r="E10">
-        <v>0.989033133672735</v>
+        <v>0.9361465105547281</v>
       </c>
       <c r="F10">
-        <v>1.047918588648315</v>
+        <v>1.025894728939391</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.040131940285502</v>
+        <v>1.049177511119252</v>
       </c>
       <c r="J10">
-        <v>1.036266132504752</v>
+        <v>1.028504770836108</v>
       </c>
       <c r="K10">
-        <v>1.042883982654257</v>
+        <v>1.037116956117823</v>
       </c>
       <c r="L10">
-        <v>0.9926553831429383</v>
+        <v>0.9517730114689357</v>
       </c>
       <c r="M10">
-        <v>1.051322137088822</v>
+        <v>1.03981167310545</v>
       </c>
       <c r="N10">
-        <v>1.01609638729451</v>
+        <v>1.013477698778944</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -787,40 +787,40 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C11">
-        <v>1.029409382538104</v>
+        <v>0.997774060898076</v>
       </c>
       <c r="D11">
-        <v>1.039077275297373</v>
+        <v>1.021287214762844</v>
       </c>
       <c r="E11">
-        <v>0.988355674866747</v>
+        <v>0.9328454960016256</v>
       </c>
       <c r="F11">
-        <v>1.047456328417402</v>
+        <v>1.023659012119044</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.040014592807539</v>
+        <v>1.04835589886122</v>
       </c>
       <c r="J11">
-        <v>1.036018172734634</v>
+        <v>1.027239735630432</v>
       </c>
       <c r="K11">
-        <v>1.042633008244475</v>
+        <v>1.035818549215216</v>
       </c>
       <c r="L11">
-        <v>0.9921088820399291</v>
+        <v>0.9491556125416571</v>
       </c>
       <c r="M11">
-        <v>1.05098147464545</v>
+        <v>1.038148133378466</v>
       </c>
       <c r="N11">
-        <v>1.01601455844554</v>
+        <v>1.013060429047287</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -828,40 +828,40 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C12">
-        <v>1.029230289902469</v>
+        <v>0.9968254697481581</v>
       </c>
       <c r="D12">
-        <v>1.038938669913827</v>
+        <v>1.020587904029146</v>
       </c>
       <c r="E12">
-        <v>0.9881042295826724</v>
+        <v>0.9316058186411971</v>
       </c>
       <c r="F12">
-        <v>1.047284779454552</v>
+        <v>1.0228214939406</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.03997081377132</v>
+        <v>1.04804611870456</v>
       </c>
       <c r="J12">
-        <v>1.035926042977867</v>
+        <v>1.026764791710487</v>
       </c>
       <c r="K12">
-        <v>1.042539741689341</v>
+        <v>1.03533102314033</v>
       </c>
       <c r="L12">
-        <v>0.9919059725120875</v>
+        <v>0.9481721277252506</v>
       </c>
       <c r="M12">
-        <v>1.050854965536438</v>
+        <v>1.037524152705941</v>
       </c>
       <c r="N12">
-        <v>1.015984154083766</v>
+        <v>1.012903778430724</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -869,40 +869,40 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C13">
-        <v>1.029268700998269</v>
+        <v>0.9970293667329315</v>
       </c>
       <c r="D13">
-        <v>1.038968397169366</v>
+        <v>1.020738187171078</v>
       </c>
       <c r="E13">
-        <v>0.9881581567098651</v>
+        <v>0.9318723593368229</v>
       </c>
       <c r="F13">
-        <v>1.047321570235174</v>
+        <v>1.023001468947532</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.039980213149594</v>
+        <v>1.04811277758834</v>
       </c>
       <c r="J13">
-        <v>1.035945806298872</v>
+        <v>1.02686690029223</v>
       </c>
       <c r="K13">
-        <v>1.042559749626301</v>
+        <v>1.035435839039816</v>
       </c>
       <c r="L13">
-        <v>0.9919494934313052</v>
+        <v>0.9483836088965214</v>
       </c>
       <c r="M13">
-        <v>1.05088210086909</v>
+        <v>1.03765827670522</v>
       </c>
       <c r="N13">
-        <v>1.015990676344304</v>
+        <v>1.012937456463562</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -910,40 +910,40 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C14">
-        <v>1.02939457648693</v>
+        <v>0.997695839254124</v>
       </c>
       <c r="D14">
-        <v>1.039065816301469</v>
+        <v>1.021229534791204</v>
       </c>
       <c r="E14">
-        <v>0.9883348863814464</v>
+        <v>0.9327433047194318</v>
       </c>
       <c r="F14">
-        <v>1.047442144949912</v>
+        <v>1.02358992848853</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.040010977908881</v>
+        <v>1.048330386817773</v>
       </c>
       <c r="J14">
-        <v>1.036010557792065</v>
+        <v>1.027200580717981</v>
       </c>
       <c r="K14">
-        <v>1.042625299680546</v>
+        <v>1.035778358048973</v>
       </c>
       <c r="L14">
-        <v>0.9920921077337197</v>
+        <v>0.949074550976452</v>
       </c>
       <c r="M14">
-        <v>1.050971016779363</v>
+        <v>1.038096679959131</v>
       </c>
       <c r="N14">
-        <v>1.0160120454023</v>
+        <v>1.013047514409795</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -951,40 +951,40 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C15">
-        <v>1.02947214679196</v>
+        <v>0.9981052489938783</v>
       </c>
       <c r="D15">
-        <v>1.039125851326187</v>
+        <v>1.02153145825744</v>
       </c>
       <c r="E15">
-        <v>0.9884438009545853</v>
+        <v>0.9332781050737295</v>
       </c>
       <c r="F15">
-        <v>1.047516455628309</v>
+        <v>1.023951552341753</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.04002990781634</v>
+        <v>1.048463850274095</v>
       </c>
       <c r="J15">
-        <v>1.036050449858863</v>
+        <v>1.027405497388975</v>
       </c>
       <c r="K15">
-        <v>1.042665681514018</v>
+        <v>1.035988695821431</v>
       </c>
       <c r="L15">
-        <v>0.9921799884222134</v>
+        <v>0.9494987508782941</v>
       </c>
       <c r="M15">
-        <v>1.051025804583546</v>
+        <v>1.038365984245059</v>
       </c>
       <c r="N15">
-        <v>1.016025210341356</v>
+        <v>1.01311510334407</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -992,40 +992,40 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C16">
-        <v>1.029923855711147</v>
+        <v>1.000469761208509</v>
       </c>
       <c r="D16">
-        <v>1.039475461000801</v>
+        <v>1.023276550643364</v>
       </c>
       <c r="E16">
-        <v>0.9890781214508737</v>
+        <v>0.9363637346017261</v>
       </c>
       <c r="F16">
-        <v>1.047949288956979</v>
+        <v>1.026042129085201</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.04013970142119</v>
+        <v>1.049231400836826</v>
       </c>
       <c r="J16">
-        <v>1.036282584993085</v>
+        <v>1.028588027860721</v>
       </c>
       <c r="K16">
-        <v>1.042900632820824</v>
+        <v>1.037202401658849</v>
       </c>
       <c r="L16">
-        <v>0.9926916645766087</v>
+        <v>0.9519451749175717</v>
       </c>
       <c r="M16">
-        <v>1.051344749571573</v>
+        <v>1.039921237406847</v>
       </c>
       <c r="N16">
-        <v>1.016101816650314</v>
+        <v>1.013505162153839</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1033,40 +1033,40 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C17">
-        <v>1.030207389544894</v>
+        <v>1.00193703353856</v>
       </c>
       <c r="D17">
-        <v>1.03969491867548</v>
+        <v>1.024360603591307</v>
       </c>
       <c r="E17">
-        <v>0.989476357848556</v>
+        <v>0.9382760156855671</v>
       </c>
       <c r="F17">
-        <v>1.048221067720051</v>
+        <v>1.02734117862963</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.040208230761786</v>
+        <v>1.049704803045894</v>
       </c>
       <c r="J17">
-        <v>1.036428148617472</v>
+        <v>1.029320977377527</v>
       </c>
       <c r="K17">
-        <v>1.043047932502028</v>
+        <v>1.037954572316476</v>
       </c>
       <c r="L17">
-        <v>0.9930127773699352</v>
+        <v>0.9534603602068056</v>
       </c>
       <c r="M17">
-        <v>1.051544863413643</v>
+        <v>1.040886219308659</v>
       </c>
       <c r="N17">
-        <v>1.016149852364809</v>
+        <v>1.013746940979172</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1074,40 +1074,40 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C18">
-        <v>1.030372837400046</v>
+        <v>1.002787249162938</v>
       </c>
       <c r="D18">
-        <v>1.039822980458778</v>
+        <v>1.024989162575676</v>
       </c>
       <c r="E18">
-        <v>0.9897087662937556</v>
+        <v>0.9393832867215687</v>
       </c>
       <c r="F18">
-        <v>1.048379689623432</v>
+        <v>1.028094539456721</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.040248079474224</v>
+        <v>1.049978062924029</v>
       </c>
       <c r="J18">
-        <v>1.036513035459894</v>
+        <v>1.029745369558032</v>
       </c>
       <c r="K18">
-        <v>1.043133820948522</v>
+        <v>1.038390054761779</v>
       </c>
       <c r="L18">
-        <v>0.9932001317071769</v>
+        <v>0.954337351586573</v>
       </c>
       <c r="M18">
-        <v>1.05166160316638</v>
+        <v>1.041445327372504</v>
       </c>
       <c r="N18">
-        <v>1.016177864364793</v>
+        <v>1.013886940735052</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1115,40 +1115,40 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C19">
-        <v>1.030429262207182</v>
+        <v>1.003076208582614</v>
       </c>
       <c r="D19">
-        <v>1.039866655625438</v>
+        <v>1.025202855087551</v>
       </c>
       <c r="E19">
-        <v>0.9897880325774034</v>
+        <v>0.9397594814684967</v>
       </c>
       <c r="F19">
-        <v>1.048433792136807</v>
+        <v>1.028350685595615</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.040261645914674</v>
+        <v>1.050070754579956</v>
       </c>
       <c r="J19">
-        <v>1.03654197659223</v>
+        <v>1.029889551285037</v>
       </c>
       <c r="K19">
-        <v>1.043163101731569</v>
+        <v>1.038537997386078</v>
       </c>
       <c r="L19">
-        <v>0.9932640239640975</v>
+        <v>0.9546352493816592</v>
       </c>
       <c r="M19">
-        <v>1.051701411187595</v>
+        <v>1.041635338893018</v>
       </c>
       <c r="N19">
-        <v>1.016187414629896</v>
+        <v>1.013934504668645</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1156,40 +1156,40 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C20">
-        <v>1.03017696206498</v>
+        <v>1.001780192994362</v>
       </c>
       <c r="D20">
-        <v>1.039671367153873</v>
+        <v>1.024244684444139</v>
       </c>
       <c r="E20">
-        <v>0.9894336180360679</v>
+        <v>0.938071692466014</v>
       </c>
       <c r="F20">
-        <v>1.048191898282873</v>
+        <v>1.027202255021829</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.040200890958146</v>
+        <v>1.049654308917922</v>
       </c>
       <c r="J20">
-        <v>1.03641253286573</v>
+        <v>1.029242663246249</v>
       </c>
       <c r="K20">
-        <v>1.043032131625732</v>
+        <v>1.037874208451507</v>
       </c>
       <c r="L20">
-        <v>0.9929783193494215</v>
+        <v>0.9532985019057444</v>
       </c>
       <c r="M20">
-        <v>1.051523391348061</v>
+        <v>1.040783075178915</v>
       </c>
       <c r="N20">
-        <v>1.016144699247911</v>
+        <v>1.013721106884123</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1197,40 +1197,40 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C21">
-        <v>1.029357506318067</v>
+        <v>0.9974998358117995</v>
       </c>
       <c r="D21">
-        <v>1.039037126316145</v>
+        <v>1.021085014729032</v>
       </c>
       <c r="E21">
-        <v>0.9882828385668249</v>
+        <v>0.9324872132148896</v>
       </c>
       <c r="F21">
-        <v>1.047406634402472</v>
+        <v>1.023416839289298</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.040001923718006</v>
+        <v>1.048266434201559</v>
       </c>
       <c r="J21">
-        <v>1.035991490810651</v>
+        <v>1.027102461055351</v>
       </c>
       <c r="K21">
-        <v>1.042605998012003</v>
+        <v>1.035677640773464</v>
       </c>
       <c r="L21">
-        <v>0.9920501090198102</v>
+        <v>0.9488714019981066</v>
       </c>
       <c r="M21">
-        <v>1.050944832469757</v>
+        <v>1.037967750347762</v>
       </c>
       <c r="N21">
-        <v>1.01600575300541</v>
+        <v>1.013015151313566</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1238,40 +1238,40 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C22">
-        <v>1.028842903015152</v>
+        <v>0.9947553793540275</v>
       </c>
       <c r="D22">
-        <v>1.038638871068714</v>
+        <v>1.019063124111151</v>
       </c>
       <c r="E22">
-        <v>0.9875604150241495</v>
+        <v>0.9288972953651162</v>
       </c>
       <c r="F22">
-        <v>1.046913806155583</v>
+        <v>1.020995731789716</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.039875720751158</v>
+        <v>1.047367163326443</v>
       </c>
       <c r="J22">
-        <v>1.035726612555423</v>
+        <v>1.025727502509806</v>
       </c>
       <c r="K22">
-        <v>1.042337820029939</v>
+        <v>1.034266165540985</v>
       </c>
       <c r="L22">
-        <v>0.9914670000341481</v>
+        <v>0.9460223821572518</v>
       </c>
       <c r="M22">
-        <v>1.050581232971485</v>
+        <v>1.036162426351671</v>
       </c>
       <c r="N22">
-        <v>1.015918337346331</v>
+        <v>1.01256166669665</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1279,40 +1279,40 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C23">
-        <v>1.02911564440862</v>
+        <v>0.9962154430137142</v>
       </c>
       <c r="D23">
-        <v>1.03884994400765</v>
+        <v>1.020138385259075</v>
       </c>
       <c r="E23">
-        <v>0.9879432794643023</v>
+        <v>0.9308081199963311</v>
       </c>
       <c r="F23">
-        <v>1.047174977813133</v>
+        <v>1.022283191828141</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.039942727703798</v>
+        <v>1.047846452064473</v>
       </c>
       <c r="J23">
-        <v>1.035867043522361</v>
+        <v>1.026459232915339</v>
       </c>
       <c r="K23">
-        <v>1.042480009543054</v>
+        <v>1.035017355566998</v>
       </c>
       <c r="L23">
-        <v>0.991776070289318</v>
+        <v>0.9475391330285314</v>
       </c>
       <c r="M23">
-        <v>1.050773967839764</v>
+        <v>1.037122872849463</v>
       </c>
       <c r="N23">
-        <v>1.015964683065939</v>
+        <v>1.012802998644354</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1320,40 +1320,40 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C24">
-        <v>1.030190710725538</v>
+        <v>1.001851079824478</v>
       </c>
       <c r="D24">
-        <v>1.039682008900483</v>
+        <v>1.024297074893094</v>
       </c>
       <c r="E24">
-        <v>0.9894529299347244</v>
+        <v>0.9381640424011821</v>
       </c>
       <c r="F24">
-        <v>1.048205078393618</v>
+        <v>1.027265042053105</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.040204207880547</v>
+        <v>1.049677133894208</v>
       </c>
       <c r="J24">
-        <v>1.036419589007435</v>
+        <v>1.029278059676006</v>
       </c>
       <c r="K24">
-        <v>1.043039271451284</v>
+        <v>1.037910531442101</v>
       </c>
       <c r="L24">
-        <v>0.9929938892766442</v>
+        <v>0.953371659644254</v>
       </c>
       <c r="M24">
-        <v>1.051533093598785</v>
+        <v>1.040829693144073</v>
       </c>
       <c r="N24">
-        <v>1.016147027739521</v>
+        <v>1.013732783365638</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1361,40 +1361,40 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C25">
-        <v>1.031440900583187</v>
+        <v>1.008171646221674</v>
       </c>
       <c r="D25">
-        <v>1.040649756720545</v>
+        <v>1.028976541582356</v>
       </c>
       <c r="E25">
-        <v>0.9912096547607049</v>
+        <v>0.9463835801718014</v>
       </c>
       <c r="F25">
-        <v>1.049404286746614</v>
+        <v>1.032876288324081</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.040502801198036</v>
+        <v>1.051689416432896</v>
       </c>
       <c r="J25">
-        <v>1.037060077934446</v>
+        <v>1.03242709705537</v>
       </c>
       <c r="K25">
-        <v>1.0436871221942</v>
+        <v>1.041141090940653</v>
       </c>
       <c r="L25">
-        <v>0.9944092447426414</v>
+        <v>0.959875449400583</v>
       </c>
       <c r="M25">
-        <v>1.052414666563164</v>
+        <v>1.044984812610617</v>
       </c>
       <c r="N25">
-        <v>1.016358375072634</v>
+        <v>1.014771680092965</v>
       </c>
     </row>
   </sheetData>
